--- a/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1q64y1d7mW_重返游戏一口气看完刺客信条全系列故事剧情_2025032712.xlsx
+++ b/后端/res_file/spide_data/游戏/2025032712/游戏_刺客信条/BV1q64y1d7mW_重返游戏一口气看完刺客信条全系列故事剧情_2025032712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="191">
   <si>
     <t>bvid</t>
   </si>
@@ -46,702 +46,563 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1q64y1d7mW</t>
   </si>
   <si>
-    <t>3493297729309449</t>
-  </si>
-  <si>
     <t>汪霜煖</t>
   </si>
   <si>
+    <t>我是亻二氵齐</t>
+  </si>
+  <si>
+    <t>bili13721451543</t>
+  </si>
+  <si>
+    <t>卡萨布兰卡LZ</t>
+  </si>
+  <si>
+    <t>轻音起源-</t>
+  </si>
+  <si>
+    <t>A9柯同志</t>
+  </si>
+  <si>
+    <t>沙漠蜥蜴v</t>
+  </si>
+  <si>
+    <t>基拉人鱼</t>
+  </si>
+  <si>
+    <t>在你隔壁的王叔</t>
+  </si>
+  <si>
+    <t>一颗有理想的苹果</t>
+  </si>
+  <si>
+    <t>OTA_KU_</t>
+  </si>
+  <si>
+    <t>我好像在哪遇见雨</t>
+  </si>
+  <si>
+    <t>沉迷主角光环</t>
+  </si>
+  <si>
+    <t>与麦穗共舞</t>
+  </si>
+  <si>
+    <t>Red-HairedShanks</t>
+  </si>
+  <si>
+    <t>MercedesBenz_</t>
+  </si>
+  <si>
+    <t>全校霸任雨风來</t>
+  </si>
+  <si>
+    <t>小青春无限呆</t>
+  </si>
+  <si>
+    <t>丰腴后妈</t>
+  </si>
+  <si>
+    <t>好咯打一</t>
+  </si>
+  <si>
+    <t>killer00700</t>
+  </si>
+  <si>
+    <t>寧亞巴拉哈</t>
+  </si>
+  <si>
+    <t>cdjnd7</t>
+  </si>
+  <si>
+    <t>1899750</t>
+  </si>
+  <si>
+    <t>食人魔忍者</t>
+  </si>
+  <si>
+    <t>哈哈rnm</t>
+  </si>
+  <si>
+    <t>山语忘忧君</t>
+  </si>
+  <si>
+    <t>doge想吃肉</t>
+  </si>
+  <si>
+    <t>真梦中</t>
+  </si>
+  <si>
+    <t>上海市外貌协会会长</t>
+  </si>
+  <si>
+    <t>吃布丁的熊猫</t>
+  </si>
+  <si>
+    <t>玄天豪侠</t>
+  </si>
+  <si>
+    <t>爆炸了糖</t>
+  </si>
+  <si>
+    <t>XEYPERUZETION</t>
+  </si>
+  <si>
+    <t>皮曰修</t>
+  </si>
+  <si>
+    <t>毛灬毛1122</t>
+  </si>
+  <si>
+    <t>董建烨</t>
+  </si>
+  <si>
+    <t>小凸凸儿</t>
+  </si>
+  <si>
+    <t>穿越__1</t>
+  </si>
+  <si>
+    <t>卍-黑崎一护-卍</t>
+  </si>
+  <si>
+    <t>终不似yl</t>
+  </si>
+  <si>
+    <t>紫绿N</t>
+  </si>
+  <si>
+    <t>bili_90958444832</t>
+  </si>
+  <si>
+    <t>达咩哟_达咩达咩</t>
+  </si>
+  <si>
+    <t>睡前老报纸_</t>
+  </si>
+  <si>
+    <t>天才飞天大牛牛</t>
+  </si>
+  <si>
+    <t>优秀秀123</t>
+  </si>
+  <si>
+    <t>おもきみ</t>
+  </si>
+  <si>
+    <t>黄河路宝总</t>
+  </si>
+  <si>
+    <t>种花家的兔子______</t>
+  </si>
+  <si>
+    <t>爱螂蟑人士</t>
+  </si>
+  <si>
+    <t>魔兽西风</t>
+  </si>
+  <si>
+    <t>ghostghostGG</t>
+  </si>
+  <si>
     <t>保密</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>强烈建议啊育 重制 刺客1 刺客2</t>
   </si>
   <si>
+    <t>看过1和黑旗的官方小说</t>
+  </si>
+  <si>
+    <t>💩💩💩💩ulj</t>
+  </si>
+  <si>
+    <t>幻境呢</t>
+  </si>
+  <si>
+    <t>奥德赛剧情真给我玩晕了，我本来以为自己是斯巴达阵营的，结果两边人都打我，就单纯把我当雇佣兵吗，还有战场模式，一会帮斯巴达，一会又要帮雅典给我整迷糊了，我现在感觉自己就是个搅屎棍没啥立场，谁给钱帮谁，然后还同时挨两边人揍[难过]</t>
+  </si>
+  <si>
+    <t>王子，快快乐乐的救了公主，顺手剁掉了，交不上税的奴隶的双手</t>
+  </si>
+  <si>
+    <t>不少人说讲up的有点问题所以up以后会不会重制一下刺客信条系列的剧情解说？</t>
+  </si>
+  <si>
+    <t>只能说现在剧情脑洞真大不比小说差</t>
+  </si>
+  <si>
+    <t>奥德赛邪教boss不能上船   我很不舒服[难过]</t>
+  </si>
+  <si>
+    <t>讲的什么玩意这是，刺客信条1第一次行动那里，刺杀失败是因为阿泰尔自大，而且万物皆虚，万物皆允那个名台词都不剪辑进来，💩</t>
+  </si>
+  <si>
+    <t>要讲就详细讲 剧情疏漏一堆就算还能把剧情说错甚至自己云点剧情硬塞进去 玩过的看了辣眼睛没玩过的听了个云里雾里甚至感觉这游戏就这叙述水平 换个小学生讲的都不一定比这差也不知道评论区的护卫犬在洗什么</t>
+  </si>
+  <si>
+    <t>讲了跟没讲一样[笑哭]一个字 💩 真不适合干解说</t>
+  </si>
+  <si>
+    <t>各种分支眼花缭乱，加上我难记名字，还有奇怪的英语口音，搞得我啥版本剧情都搞不清楚[笑哭]</t>
+  </si>
+  <si>
+    <t>刚打完枭雄本体剧情  好惆怅，好想回到那个时代，好想再活五百年~</t>
+  </si>
+  <si>
+    <t>[打call]</t>
+  </si>
+  <si>
+    <t>谁在看</t>
+  </si>
+  <si>
+    <t>西泽尔就是个被惯坏的傻子，不听他爸的还把他爸搞死了，罗德里戈可是整个意大利的教皇，他能掌握军队是他爸在撑腰，他爸死了教会里其他家族马上出来趁虚而入，他害死了他们整个家族。</t>
+  </si>
+  <si>
+    <t>此刻躬耕于黑暗·服侍着铸世界·刺客信条守望者们！</t>
+  </si>
+  <si>
+    <t>看着都无聊，这剧情我都不知道怎么能玩下去，更何况它还卡剧情，男主纯工具人</t>
+  </si>
+  <si>
+    <t>游戏有很多开放性结局嗯，刺客信条慢慢玩，慢慢享受。速通的话没有太大意思。速通过起源和刺客3，全收集的是三部曲，黑旗，枭雄，奥德赛。在的都大差不差。目前还在英灵殿。</t>
+  </si>
+  <si>
+    <t>所以严格意义上来说，这个叛变的主角就是造成大革命主角变成那样子的罪魁祸首[doge_金箍]不是很喜欢叛变的，这个主角感觉有点神经病。都不听一下那个刺客兄弟会的解释，就觉自认为那个兄弟会是什什么恐怖组织，挺无语的。</t>
+  </si>
+  <si>
+    <t>说实话，你这刺客信条3讲的和屎💩一样</t>
+  </si>
+  <si>
+    <t>想去看剧情建议去看北纬25NL比这个up讲的专业多了，这个up相当的离谱最早我还记得把袖剑讲成弹簧刀笑死我了[doge]</t>
+  </si>
+  <si>
+    <t>《刺客信条》</t>
+  </si>
+  <si>
+    <t>罗德里戈死的最惨，不过他儿子简直脑瘫，他爸可是教皇，罗德里戈只要不死，整个意大利的军权永远是他的，结果最后教皇一死，其他家族马上开始发难，他就是个彻头彻尾的失败者。</t>
+  </si>
+  <si>
+    <t>这还能等到故事完结的一天吗？</t>
+  </si>
+  <si>
+    <t>刺客信条兄弟会是第二个打完全的，其他不是因为没赶上就是因为电脑配置不够。所以把剧情都看完。因为当初打完了也没看懂剧情。</t>
+  </si>
+  <si>
+    <t>刺客信条1是第一个玩的完整的，当时玩的时候身边的人都因为我玩的太冷门而嘲笑我。</t>
+  </si>
+  <si>
+    <t>刺客信条3里主角是圣殿骑士团的原因小说里有讲，是因为当时黑旗主角爱德华肯威回英国安顿好后取了另外一个女人生下了主角，然后爱德华肯威的好朋友里有一个就是圣殿骑士团的人，然后呢这个好朋友就搞事情，给爱德华肯威夫妇搞死，同时告诉主角是刺客兄弟会的人干的，然后主角前期就是圣殿骑士团，后面经过一系列事情主角才明白被骗了，但没时间了，因为他的儿子就是和那个印第安女人生下的还早加入了刺客兄弟会，然后就是狗血的儿子杀父亲了。后续主角的儿子去了北美参与美国建国一系列故事。所以说刺客信条3是双主角叙事。但是好处是延续黑旗，其实我当时看小说黑旗是第三部，这部小说是第四部，不明白为什么游戏反过来了。</t>
+  </si>
+  <si>
+    <t>入坑作</t>
+  </si>
+  <si>
+    <t>叛变那个主角明显不对，刺客系列是从达思蒙基因里提取的直系祖先们的记忆，能控制的主角是跟随这个基因单传下来的一条线，不可能出现海尔森和菜农这两个同时都是达思蒙祖先</t>
+  </si>
+  <si>
+    <t>一口一个舔狗，拉顿哈给顿都不会说小心晚上睡觉的时候脖颈一凉</t>
+  </si>
+  <si>
+    <t>什么鬼狮心王查理，狮心王是叫理查吧</t>
+  </si>
+  <si>
+    <t>很明显你不适合做解说</t>
+  </si>
+  <si>
+    <t>没讲解放啊</t>
+  </si>
+  <si>
+    <t>这代画质变差了，还是up开的低画质</t>
+  </si>
+  <si>
+    <t>我明明选的简单，为啥还是这么肝，还是过来云一下舒服。</t>
+  </si>
+  <si>
+    <t>奥德赛真是够长的</t>
+  </si>
+  <si>
+    <t>我说艾雅怎么这么猛，半神的后代</t>
+  </si>
+  <si>
+    <t>我剧情里为啥那个女医生是上古维序者[笑哭]</t>
+  </si>
+  <si>
+    <t>这人叫巴塞罗</t>
+  </si>
+  <si>
+    <t>是他姥爷[脱单doge]</t>
+  </si>
+  <si>
+    <t>00:14</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>5:53</t>
+  </si>
+  <si>
+    <t>圣殿骑士的理念符合中国，刺客兄弟会符合欧美</t>
+  </si>
+  <si>
+    <t>up讲的非常笼统，很多核心的内容细节都没有讲出来，还是建议先去玩游戏，这个系列想表达的远没有这么简单</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>玛丽和安妮怀的是谁的孩子呀！</t>
+  </si>
+  <si>
+    <t>虽然我不是刺客信条玩家，但为啥我越来越感觉之后这几部作品不像个刺客游戏，反而变的像别的类型的游戏</t>
+  </si>
+  <si>
+    <t>能不能别勾把说那么快啊？</t>
+  </si>
+  <si>
+    <t>是不是少了个解放[微笑]</t>
+  </si>
+  <si>
+    <t>就听了刺客3的解说，可以说和我刚玩过的剧情截然不同</t>
+  </si>
+  <si>
+    <t>牛逼</t>
+  </si>
+  <si>
+    <t>等一手幻景</t>
+  </si>
+  <si>
+    <t>哥们怎么猛不打汉化..我6级过了都听不太懂..大写的单词一时间也看不出</t>
+  </si>
+  <si>
+    <t>刺客信条系列我觉得最吸引人的就是那台穿越机，后人通过遗传信息解密祖先的风光伟绩，同时这个也是你的限制，祖先怎么可能突然完不成任务，祖先怎么可能滥杀无辜，祖先怎么可能会不到时候就轻易挂彩，并且参与到祖先那个年代的事件跟人文，体验古代旅行模拟器，现实跟虚拟的杂糅，一切就感觉合情合理[嗑瓜子]</t>
+  </si>
+  <si>
+    <t>老板娘：难道你喜欢黑丝</t>
+  </si>
+  <si>
+    <t>没想到阿德瓦雷就这么死了</t>
+  </si>
+  <si>
     <t>2025-03-24 14:44:19</t>
   </si>
   <si>
-    <t>1516643441</t>
-  </si>
-  <si>
-    <t>我是亻二氵齐</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>看过1和黑旗的官方小说</t>
-  </si>
-  <si>
     <t>2025-03-23 14:04:16</t>
   </si>
   <si>
-    <t>360781500</t>
-  </si>
-  <si>
-    <t>bili13721451543</t>
-  </si>
-  <si>
-    <t>💩💩💩💩ulj</t>
-  </si>
-  <si>
     <t>2025-03-21 23:11:03</t>
   </si>
   <si>
-    <t>6555236</t>
-  </si>
-  <si>
-    <t>卡萨布兰卡LZ</t>
-  </si>
-  <si>
-    <t>幻境呢</t>
-  </si>
-  <si>
     <t>2025-03-06 01:35:56</t>
   </si>
   <si>
-    <t>351893448</t>
-  </si>
-  <si>
-    <t>轻音起源-</t>
-  </si>
-  <si>
-    <t>奥德赛剧情真给我玩晕了，我本来以为自己是斯巴达阵营的，结果两边人都打我，就单纯把我当雇佣兵吗，还有战场模式，一会帮斯巴达，一会又要帮雅典给我整迷糊了，我现在感觉自己就是个搅屎棍没啥立场，谁给钱帮谁，然后还同时挨两边人揍[难过]</t>
-  </si>
-  <si>
     <t>2025-03-02 03:04:09</t>
   </si>
   <si>
-    <t>2109800266</t>
-  </si>
-  <si>
-    <t>A9柯同志</t>
-  </si>
-  <si>
-    <t>王子，快快乐乐的救了公主，顺手剁掉了，交不上税的奴隶的双手</t>
-  </si>
-  <si>
     <t>2025-02-24 19:40:45</t>
   </si>
   <si>
-    <t>3546834033182842</t>
-  </si>
-  <si>
-    <t>沙漠蜥蜴v</t>
-  </si>
-  <si>
-    <t>不少人说讲up的有点问题所以up以后会不会重制一下刺客信条系列的剧情解说？</t>
-  </si>
-  <si>
     <t>2025-02-12 16:56:28</t>
   </si>
   <si>
-    <t>1564253138</t>
-  </si>
-  <si>
-    <t>基拉人鱼</t>
-  </si>
-  <si>
-    <t>只能说现在剧情脑洞真大不比小说差</t>
-  </si>
-  <si>
     <t>2025-01-07 13:41:05</t>
   </si>
   <si>
-    <t>16316284</t>
-  </si>
-  <si>
-    <t>在你隔壁的王叔</t>
-  </si>
-  <si>
-    <t>奥德赛邪教boss不能上船   我很不舒服[难过]</t>
-  </si>
-  <si>
     <t>2025-01-06 00:51:44</t>
   </si>
   <si>
-    <t>1295274870</t>
-  </si>
-  <si>
-    <t>一颗有理想的苹果</t>
-  </si>
-  <si>
-    <t>讲的什么玩意这是，刺客信条1第一次行动那里，刺杀失败是因为阿泰尔自大，而且万物皆虚，万物皆允那个名台词都不剪辑进来，💩</t>
-  </si>
-  <si>
     <t>2025-01-02 00:06:24</t>
   </si>
   <si>
-    <t>1767872709</t>
-  </si>
-  <si>
-    <t>OTA_KU_</t>
-  </si>
-  <si>
-    <t>要讲就详细讲 剧情疏漏一堆就算还能把剧情说错甚至自己云点剧情硬塞进去 玩过的看了辣眼睛没玩过的听了个云里雾里甚至感觉这游戏就这叙述水平 换个小学生讲的都不一定比这差也不知道评论区的护卫犬在洗什么</t>
-  </si>
-  <si>
     <t>2024-12-22 19:17:26</t>
   </si>
   <si>
-    <t>讲了跟没讲一样[笑哭]一个字 💩 真不适合干解说</t>
-  </si>
-  <si>
     <t>2024-12-22 19:12:07</t>
   </si>
   <si>
-    <t>12846915</t>
-  </si>
-  <si>
-    <t>我好像在哪遇见雨</t>
-  </si>
-  <si>
-    <t>各种分支眼花缭乱，加上我难记名字，还有奇怪的英语口音，搞得我啥版本剧情都搞不清楚[笑哭]</t>
-  </si>
-  <si>
     <t>2024-12-17 02:28:57</t>
   </si>
   <si>
-    <t>491015161</t>
-  </si>
-  <si>
-    <t>沉迷主角光环</t>
-  </si>
-  <si>
-    <t>刚打完枭雄本体剧情  好惆怅，好想回到那个时代，好想再活五百年~</t>
-  </si>
-  <si>
     <t>2024-12-17 00:29:34</t>
   </si>
   <si>
-    <t>3537119114954943</t>
-  </si>
-  <si>
-    <t>与麦穗共舞</t>
-  </si>
-  <si>
-    <t>[打call]</t>
-  </si>
-  <si>
     <t>2024-12-10 23:28:35</t>
   </si>
   <si>
-    <t>135109704</t>
-  </si>
-  <si>
-    <t>Red-HairedShanks</t>
-  </si>
-  <si>
-    <t>谁在看</t>
-  </si>
-  <si>
     <t>2024-11-29 01:45:10</t>
   </si>
   <si>
-    <t>400382592</t>
-  </si>
-  <si>
-    <t>MercedesBenz_</t>
-  </si>
-  <si>
-    <t>西泽尔就是个被惯坏的傻子，不听他爸的还把他爸搞死了，罗德里戈可是整个意大利的教皇，他能掌握军队是他爸在撑腰，他爸死了教会里其他家族马上出来趁虚而入，他害死了他们整个家族。</t>
-  </si>
-  <si>
     <t>2024-11-21 22:45:58</t>
   </si>
   <si>
-    <t>137940409</t>
-  </si>
-  <si>
-    <t>全校霸任雨风來</t>
-  </si>
-  <si>
-    <t>此刻躬耕于黑暗·服侍着铸世界·刺客信条守望者们！</t>
-  </si>
-  <si>
     <t>2024-11-20 10:44:00</t>
   </si>
   <si>
-    <t>34817990</t>
-  </si>
-  <si>
-    <t>小青春无限呆</t>
-  </si>
-  <si>
-    <t>看着都无聊，这剧情我都不知道怎么能玩下去，更何况它还卡剧情，男主纯工具人</t>
-  </si>
-  <si>
     <t>2024-11-04 23:46:52</t>
   </si>
   <si>
-    <t>398200972</t>
-  </si>
-  <si>
-    <t>丰腴后妈</t>
-  </si>
-  <si>
-    <t>游戏有很多开放性结局嗯，刺客信条慢慢玩，慢慢享受。速通的话没有太大意思。速通过起源和刺客3，全收集的是三部曲，黑旗，枭雄，奥德赛。在的都大差不差。目前还在英灵殿。</t>
-  </si>
-  <si>
     <t>2024-11-02 11:54:16</t>
   </si>
   <si>
-    <t>1737124258</t>
-  </si>
-  <si>
-    <t>好咯打一</t>
-  </si>
-  <si>
-    <t>所以严格意义上来说，这个叛变的主角就是造成大革命主角变成那样子的罪魁祸首[doge_金箍]不是很喜欢叛变的，这个主角感觉有点神经病。都不听一下那个刺客兄弟会的解释，就觉自认为那个兄弟会是什什么恐怖组织，挺无语的。</t>
-  </si>
-  <si>
     <t>2024-11-01 06:32:04</t>
   </si>
   <si>
-    <t>1988353453</t>
-  </si>
-  <si>
-    <t>killer00700</t>
-  </si>
-  <si>
-    <t>说实话，你这刺客信条3讲的和屎💩一样</t>
-  </si>
-  <si>
     <t>2024-10-25 01:51:03</t>
   </si>
   <si>
-    <t>3666774</t>
-  </si>
-  <si>
-    <t>寧亞巴拉哈</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>想去看剧情建议去看北纬25NL比这个up讲的专业多了，这个up相当的离谱最早我还记得把袖剑讲成弹簧刀笑死我了[doge]</t>
-  </si>
-  <si>
     <t>2024-10-09 00:18:17</t>
   </si>
   <si>
-    <t>3546743782246622</t>
-  </si>
-  <si>
-    <t>cdjnd7</t>
-  </si>
-  <si>
-    <t>《刺客信条》</t>
-  </si>
-  <si>
     <t>2024-10-01 23:02:03</t>
   </si>
   <si>
-    <t>罗德里戈死的最惨，不过他儿子简直脑瘫，他爸可是教皇，罗德里戈只要不死，整个意大利的军权永远是他的，结果最后教皇一死，其他家族马上开始发难，他就是个彻头彻尾的失败者。</t>
-  </si>
-  <si>
     <t>2024-09-30 00:01:02</t>
   </si>
   <si>
-    <t>2139860668</t>
-  </si>
-  <si>
-    <t>1899750</t>
-  </si>
-  <si>
-    <t>这还能等到故事完结的一天吗？</t>
-  </si>
-  <si>
     <t>2024-09-28 03:49:47</t>
   </si>
   <si>
-    <t>3546638498924809</t>
-  </si>
-  <si>
-    <t>食人魔忍者</t>
-  </si>
-  <si>
-    <t>刺客信条兄弟会是第二个打完全的，其他不是因为没赶上就是因为电脑配置不够。所以把剧情都看完。因为当初打完了也没看懂剧情。</t>
-  </si>
-  <si>
     <t>2024-09-12 23:32:39</t>
   </si>
   <si>
-    <t>刺客信条1是第一个玩的完整的，当时玩的时候身边的人都因为我玩的太冷门而嘲笑我。</t>
-  </si>
-  <si>
     <t>2024-09-12 23:17:01</t>
   </si>
   <si>
-    <t>616987447</t>
-  </si>
-  <si>
-    <t>哈哈rnm</t>
-  </si>
-  <si>
-    <t>刺客信条3里主角是圣殿骑士团的原因小说里有讲，是因为当时黑旗主角爱德华肯威回英国安顿好后取了另外一个女人生下了主角，然后爱德华肯威的好朋友里有一个就是圣殿骑士团的人，然后呢这个好朋友就搞事情，给爱德华肯威夫妇搞死，同时告诉主角是刺客兄弟会的人干的，然后主角前期就是圣殿骑士团，后面经过一系列事情主角才明白被骗了，但没时间了，因为他的儿子就是和那个印第安女人生下的还早加入了刺客兄弟会，然后就是狗血的儿子杀父亲了。后续主角的儿子去了北美参与美国建国一系列故事。所以说刺客信条3是双主角叙事。但是好处是延续黑旗，其实我当时看小说黑旗是第三部，这部小说是第四部，不明白为什么游戏反过来了。</t>
-  </si>
-  <si>
     <t>2024-08-04 03:21:50</t>
   </si>
   <si>
-    <t>2144526063</t>
-  </si>
-  <si>
-    <t>山语忘忧君</t>
-  </si>
-  <si>
-    <t>入坑作</t>
-  </si>
-  <si>
     <t>2024-08-03 23:35:59</t>
   </si>
   <si>
-    <t>3493266230086282</t>
-  </si>
-  <si>
-    <t>doge想吃肉</t>
-  </si>
-  <si>
-    <t>叛变那个主角明显不对，刺客系列是从达思蒙基因里提取的直系祖先们的记忆，能控制的主角是跟随这个基因单传下来的一条线，不可能出现海尔森和菜农这两个同时都是达思蒙祖先</t>
-  </si>
-  <si>
     <t>2024-08-01 12:31:27</t>
   </si>
   <si>
-    <t>1613906064</t>
-  </si>
-  <si>
-    <t>真梦中</t>
-  </si>
-  <si>
-    <t>一口一个舔狗，拉顿哈给顿都不会说小心晚上睡觉的时候脖颈一凉</t>
-  </si>
-  <si>
     <t>2024-07-12 19:40:21</t>
   </si>
   <si>
-    <t>221161290</t>
-  </si>
-  <si>
-    <t>上海市外貌协会会长</t>
-  </si>
-  <si>
-    <t>什么鬼狮心王查理，狮心王是叫理查吧</t>
-  </si>
-  <si>
     <t>2024-07-10 22:19:12</t>
   </si>
   <si>
-    <t>18505269</t>
-  </si>
-  <si>
-    <t>吃布丁的熊猫</t>
-  </si>
-  <si>
-    <t>很明显你不适合做解说</t>
-  </si>
-  <si>
     <t>2024-05-12 10:50:25</t>
   </si>
   <si>
-    <t>13162645</t>
-  </si>
-  <si>
-    <t>玄天豪侠</t>
-  </si>
-  <si>
-    <t>没讲解放啊</t>
-  </si>
-  <si>
     <t>2024-04-16 23:11:31</t>
   </si>
   <si>
-    <t>701607383</t>
-  </si>
-  <si>
-    <t>爆炸了糖</t>
-  </si>
-  <si>
-    <t>这代画质变差了，还是up开的低画质</t>
-  </si>
-  <si>
     <t>2024-03-29 00:00:26</t>
   </si>
   <si>
-    <t>396854627</t>
-  </si>
-  <si>
-    <t>XEYPERUZETION</t>
-  </si>
-  <si>
-    <t>我明明选的简单，为啥还是这么肝，还是过来云一下舒服。</t>
-  </si>
-  <si>
     <t>2024-03-24 23:59:47</t>
   </si>
   <si>
-    <t>539357497</t>
-  </si>
-  <si>
-    <t>皮曰修</t>
-  </si>
-  <si>
-    <t>奥德赛真是够长的</t>
-  </si>
-  <si>
     <t>2024-03-09 14:20:47</t>
   </si>
   <si>
-    <t>505496133</t>
-  </si>
-  <si>
-    <t>毛灬毛1122</t>
-  </si>
-  <si>
-    <t>我说艾雅怎么这么猛，半神的后代</t>
-  </si>
-  <si>
     <t>2024-03-04 18:20:40</t>
   </si>
   <si>
-    <t>我剧情里为啥那个女医生是上古维序者[笑哭]</t>
-  </si>
-  <si>
     <t>2024-03-04 18:10:47</t>
   </si>
   <si>
-    <t>1017334455</t>
-  </si>
-  <si>
-    <t>董建烨</t>
-  </si>
-  <si>
-    <t>这人叫巴塞罗</t>
-  </si>
-  <si>
     <t>2024-03-02 17:52:17</t>
   </si>
   <si>
-    <t>129910863</t>
-  </si>
-  <si>
-    <t>小凸凸儿</t>
-  </si>
-  <si>
-    <t>是他姥爷[脱单doge]</t>
-  </si>
-  <si>
     <t>2024-01-26 23:19:26</t>
   </si>
   <si>
-    <t>3493122363361393</t>
-  </si>
-  <si>
-    <t>穿越__1</t>
-  </si>
-  <si>
-    <t>00:14</t>
-  </si>
-  <si>
     <t>2024-01-24 10:13:36</t>
   </si>
   <si>
-    <t>05:59</t>
-  </si>
-  <si>
     <t>2024-01-24 08:59:19</t>
   </si>
   <si>
-    <t>5:53</t>
-  </si>
-  <si>
     <t>2024-01-23 23:22:54</t>
   </si>
   <si>
-    <t>3461573012097853</t>
-  </si>
-  <si>
-    <t>卍-黑崎一护-卍</t>
-  </si>
-  <si>
-    <t>圣殿骑士的理念符合中国，刺客兄弟会符合欧美</t>
-  </si>
-  <si>
     <t>2024-01-16 12:40:18</t>
   </si>
   <si>
-    <t>up讲的非常笼统，很多核心的内容细节都没有讲出来，还是建议先去玩游戏，这个系列想表达的远没有这么简单</t>
-  </si>
-  <si>
     <t>2024-01-16 12:29:13</t>
   </si>
   <si>
-    <t>168615833</t>
-  </si>
-  <si>
-    <t>终不似yl</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2024-01-14 15:11:49</t>
   </si>
   <si>
-    <t>302311237</t>
-  </si>
-  <si>
-    <t>紫绿N</t>
-  </si>
-  <si>
-    <t>玛丽和安妮怀的是谁的孩子呀！</t>
-  </si>
-  <si>
     <t>2023-12-20 23:28:40</t>
   </si>
   <si>
-    <t>1125791061</t>
-  </si>
-  <si>
-    <t>bili_90958444832</t>
-  </si>
-  <si>
-    <t>虽然我不是刺客信条玩家，但为啥我越来越感觉之后这几部作品不像个刺客游戏，反而变的像别的类型的游戏</t>
-  </si>
-  <si>
     <t>2023-12-19 12:54:45</t>
   </si>
   <si>
-    <t>5703215</t>
-  </si>
-  <si>
-    <t>达咩哟_达咩达咩</t>
-  </si>
-  <si>
-    <t>能不能别勾把说那么快啊？</t>
-  </si>
-  <si>
     <t>2023-12-17 03:55:29</t>
   </si>
   <si>
-    <t>524235358</t>
-  </si>
-  <si>
-    <t>睡前老报纸_</t>
-  </si>
-  <si>
-    <t>是不是少了个解放[微笑]</t>
-  </si>
-  <si>
     <t>2023-11-28 22:11:12</t>
   </si>
   <si>
-    <t>287826216</t>
-  </si>
-  <si>
-    <t>天才飞天大牛牛</t>
-  </si>
-  <si>
-    <t>就听了刺客3的解说，可以说和我刚玩过的剧情截然不同</t>
-  </si>
-  <si>
     <t>2023-11-16 09:45:40</t>
   </si>
   <si>
-    <t>95744283</t>
-  </si>
-  <si>
-    <t>优秀秀123</t>
-  </si>
-  <si>
-    <t>牛逼</t>
-  </si>
-  <si>
     <t>2023-10-10 23:51:21</t>
   </si>
   <si>
-    <t>8469957</t>
-  </si>
-  <si>
-    <t>おもきみ</t>
-  </si>
-  <si>
-    <t>等一手幻景</t>
-  </si>
-  <si>
     <t>2023-10-10 20:25:32</t>
   </si>
   <si>
-    <t>299866430</t>
-  </si>
-  <si>
-    <t>黄河路宝总</t>
-  </si>
-  <si>
-    <t>哥们怎么猛不打汉化..我6级过了都听不太懂..大写的单词一时间也看不出</t>
-  </si>
-  <si>
     <t>2023-10-06 11:28:17</t>
   </si>
   <si>
-    <t>667864411</t>
-  </si>
-  <si>
-    <t>种花家的兔子______</t>
-  </si>
-  <si>
     <t>2023-09-26 12:32:45</t>
   </si>
   <si>
-    <t>51026410</t>
-  </si>
-  <si>
-    <t>爱螂蟑人士</t>
-  </si>
-  <si>
-    <t>刺客信条系列我觉得最吸引人的就是那台穿越机，后人通过遗传信息解密祖先的风光伟绩，同时这个也是你的限制，祖先怎么可能突然完不成任务，祖先怎么可能滥杀无辜，祖先怎么可能会不到时候就轻易挂彩，并且参与到祖先那个年代的事件跟人文，体验古代旅行模拟器，现实跟虚拟的杂糅，一切就感觉合情合理[嗑瓜子]</t>
-  </si>
-  <si>
     <t>2023-09-22 18:10:24</t>
   </si>
   <si>
-    <t>1098594214</t>
-  </si>
-  <si>
-    <t>魔兽西风</t>
-  </si>
-  <si>
-    <t>老板娘：难道你喜欢黑丝</t>
-  </si>
-  <si>
     <t>2023-09-22 13:14:38</t>
   </si>
   <si>
-    <t>53815153</t>
-  </si>
-  <si>
-    <t>ghostghostGG</t>
-  </si>
-  <si>
-    <t>没想到阿德瓦雷就这么死了</t>
-  </si>
-  <si>
     <t>2023-07-19 17:54:01</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>中性</t>
+  </si>
+  <si>
+    <t>消极</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -757,7 +618,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -765,12 +626,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,1962 +944,2145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>258571415920</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>3493297729309449</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>258486290224</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>1516643441</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>258351935376</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
+      <c r="C4">
+        <v>360781500</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>130</v>
+      </c>
+      <c r="K4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257053590928</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>6555236</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="K5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>256725978064</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>351893448</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>255541580209</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>2109800266</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>133</v>
+      </c>
+      <c r="K7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>255168305472</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="C8">
+        <v>3546834033182842</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>134</v>
+      </c>
+      <c r="K8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>251734525856</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
+      <c r="C9">
+        <v>1564253138</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>251084093105</v>
       </c>
-      <c r="C10" t="s">
-        <v>46</v>
+      <c r="C10">
+        <v>16316284</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>250748323201</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
+      <c r="C11">
+        <v>1295274870</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>250387033216</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
+      <c r="C12">
+        <v>1767872709</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>250386541152</v>
       </c>
-      <c r="C13" t="s">
-        <v>54</v>
+      <c r="C13">
+        <v>1767872709</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>249893410832</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
+      <c r="C14">
+        <v>12846915</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>249439069393</v>
       </c>
-      <c r="C15" t="s">
-        <v>64</v>
+      <c r="C15">
+        <v>491015161</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>249354862656</v>
       </c>
-      <c r="C16" t="s">
-        <v>68</v>
+      <c r="C16">
+        <v>3537119114954943</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>248326068384</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
+      <c r="C17">
+        <v>135109704</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>247374581265</v>
       </c>
-      <c r="C18" t="s">
-        <v>76</v>
+      <c r="C18">
+        <v>400382592</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>247582217984</v>
       </c>
-      <c r="C19" t="s">
-        <v>80</v>
+      <c r="C19">
+        <v>137940409</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>246023221249</v>
       </c>
-      <c r="C20" t="s">
-        <v>84</v>
+      <c r="C20">
+        <v>34817990</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>245805645409</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
+      <c r="C21">
+        <v>398200972</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>245711442833</v>
       </c>
-      <c r="C22" t="s">
-        <v>92</v>
+      <c r="C22">
+        <v>1737124258</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>245155398673</v>
       </c>
-      <c r="C23" t="s">
-        <v>96</v>
+      <c r="C23">
+        <v>1988353453</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>243979904321</v>
       </c>
-      <c r="C24" t="s">
-        <v>100</v>
+      <c r="C24">
+        <v>3666774</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>243584294416</v>
       </c>
-      <c r="C25" t="s">
-        <v>105</v>
+      <c r="C25">
+        <v>3546743782246622</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>243294158049</v>
       </c>
-      <c r="C26" t="s">
-        <v>76</v>
+      <c r="C26">
+        <v>400382592</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>243157355921</v>
       </c>
-      <c r="C27" t="s">
-        <v>111</v>
+      <c r="C27">
+        <v>2139860668</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>242052244480</v>
       </c>
-      <c r="C28" t="s">
-        <v>115</v>
+      <c r="C28">
+        <v>3546638498924809</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>242050899216</v>
       </c>
-      <c r="C29" t="s">
-        <v>115</v>
+      <c r="C29">
+        <v>3546638498924809</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>235542536384</v>
       </c>
-      <c r="C30" t="s">
-        <v>121</v>
+      <c r="C30">
+        <v>616987447</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>235515572160</v>
       </c>
-      <c r="C31" t="s">
-        <v>125</v>
+      <c r="C31">
+        <v>2144526063</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>234977361152</v>
       </c>
-      <c r="C32" t="s">
-        <v>129</v>
+      <c r="C32">
+        <v>3493266230086282</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>231075134192</v>
       </c>
-      <c r="C33" t="s">
-        <v>133</v>
+      <c r="C33">
+        <v>1613906064</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>230736395344</v>
       </c>
-      <c r="C34" t="s">
-        <v>137</v>
+      <c r="C34">
+        <v>221161290</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>221041052864</v>
       </c>
-      <c r="C35" t="s">
-        <v>141</v>
+      <c r="C35">
+        <v>18505269</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>217196497760</v>
       </c>
-      <c r="C36" t="s">
-        <v>145</v>
+      <c r="C36">
+        <v>13162645</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>214415284624</v>
       </c>
-      <c r="C37" t="s">
-        <v>149</v>
+      <c r="C37">
+        <v>701607383</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>213858982128</v>
       </c>
-      <c r="C38" t="s">
-        <v>153</v>
+      <c r="C38">
+        <v>396854627</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>211609576480</v>
       </c>
-      <c r="C39" t="s">
-        <v>157</v>
+      <c r="C39">
+        <v>539357497</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>210951859120</v>
       </c>
-      <c r="C40" t="s">
-        <v>161</v>
+      <c r="C40">
+        <v>505496133</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>166</v>
+      </c>
+      <c r="K40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>210950455408</v>
       </c>
-      <c r="C41" t="s">
-        <v>161</v>
+      <c r="C41">
+        <v>505496133</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>210660456080</v>
       </c>
-      <c r="C42" t="s">
-        <v>167</v>
+      <c r="C42">
+        <v>1017334455</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>204989725600</v>
       </c>
-      <c r="C43" t="s">
-        <v>171</v>
+      <c r="C43">
+        <v>129910863</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>204578526288</v>
       </c>
-      <c r="C44" t="s">
-        <v>175</v>
+      <c r="C44">
+        <v>3493122363361393</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F44">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H44" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>204571490736</v>
       </c>
-      <c r="C45" t="s">
-        <v>175</v>
+      <c r="C45">
+        <v>3493122363361393</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>204538684448</v>
       </c>
-      <c r="C46" t="s">
-        <v>175</v>
+      <c r="C46">
+        <v>3493122363361393</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>203392371632</v>
       </c>
-      <c r="C47" t="s">
-        <v>183</v>
+      <c r="C47">
+        <v>3461573012097853</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>203390672256</v>
       </c>
-      <c r="C48" t="s">
-        <v>183</v>
+      <c r="C48">
+        <v>3461573012097853</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H48" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
+        <v>174</v>
+      </c>
+      <c r="K48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>203124622368</v>
       </c>
-      <c r="C49" t="s">
-        <v>189</v>
+      <c r="C49">
+        <v>168615833</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>199522771104</v>
       </c>
-      <c r="C50" t="s">
-        <v>193</v>
+      <c r="C50">
+        <v>302311237</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H50" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>199300670656</v>
       </c>
-      <c r="C51" t="s">
-        <v>197</v>
+      <c r="C51">
+        <v>1125791061</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>198967394656</v>
       </c>
-      <c r="C52" t="s">
-        <v>201</v>
+      <c r="C52">
+        <v>5703215</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>196340966032</v>
       </c>
-      <c r="C53" t="s">
-        <v>205</v>
+      <c r="C53">
+        <v>524235358</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>194590307296</v>
       </c>
-      <c r="C54" t="s">
-        <v>209</v>
+      <c r="C54">
+        <v>287826216</v>
       </c>
       <c r="D54" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F54">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H54" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>189568980160</v>
       </c>
-      <c r="C55" t="s">
-        <v>213</v>
+      <c r="C55">
+        <v>95744283</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>181</v>
+      </c>
+      <c r="K55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>189539601056</v>
       </c>
-      <c r="C56" t="s">
-        <v>217</v>
+      <c r="C56">
+        <v>8469957</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>182</v>
+      </c>
+      <c r="K56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>188959825712</v>
       </c>
-      <c r="C57" t="s">
-        <v>221</v>
+      <c r="C57">
+        <v>299866430</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>187533769296</v>
       </c>
-      <c r="C58" t="s">
-        <v>225</v>
+      <c r="C58">
+        <v>667864411</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>184</v>
+      </c>
+      <c r="K58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>186999434272</v>
       </c>
-      <c r="C59" t="s">
-        <v>228</v>
+      <c r="C59">
+        <v>51026410</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H59" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>186967608320</v>
       </c>
-      <c r="C60" t="s">
-        <v>232</v>
+      <c r="C60">
+        <v>1098594214</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>186</v>
+      </c>
+      <c r="K60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>175869956752</v>
       </c>
-      <c r="C61" t="s">
-        <v>236</v>
+      <c r="C61">
+        <v>53815153</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>239</v>
+        <v>187</v>
+      </c>
+      <c r="K61" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
